--- a/MSE_ToDo.xlsx
+++ b/MSE_ToDo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\docs\Studies\2nd_sem\MSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESE\2 Mechatronic Systems Engineering\git\MSE-ProjectHarvest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BAB071-23F3-4131-AF63-26167976CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E091427-DC3E-48A1-9BC5-8D762CB54278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Veli Ates</t>
   </si>
@@ -115,12 +115,15 @@
   </si>
   <si>
     <t>1. Connection establishment – searching, connected, failure, send acknowledgement</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +158,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -209,15 +218,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -230,6 +233,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,47 +553,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F11:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.08984375" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.08984375" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="2" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>7</v>
@@ -613,7 +623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="6:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
@@ -621,81 +631,81 @@
         <v>10</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>13</v>
+      <c r="M13" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="6:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="6:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="7" t="s">
+      <c r="M15" s="7"/>
+      <c r="N15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
